--- a/data_year/zb/资源和环境/水资源.xlsx
+++ b/data_year/zb/资源和环境/水资源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,375 +463,279 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1856.29</v>
+        <v>2310.4052386691</v>
       </c>
       <c r="C2" t="n">
-        <v>7436.3</v>
+        <v>8417.0478438227</v>
       </c>
       <c r="D2" t="n">
-        <v>6433.1</v>
+        <v>7308.2454553723</v>
       </c>
       <c r="E2" t="n">
-        <v>23126.4</v>
+        <v>29797.6220653495</v>
       </c>
       <c r="F2" t="n">
-        <v>24129.56</v>
+        <v>30906.4063979384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2151.8</v>
+        <v>1729.1</v>
       </c>
       <c r="C3" t="n">
-        <v>8091.12</v>
+        <v>7214.5</v>
       </c>
       <c r="D3" t="n">
-        <v>7020.4</v>
+        <v>6171.4</v>
       </c>
       <c r="E3" t="n">
-        <v>26982.37</v>
+        <v>22213.6</v>
       </c>
       <c r="F3" t="n">
-        <v>28053.1</v>
+        <v>23256.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1932.0942736682</v>
+        <v>2180.5</v>
       </c>
       <c r="C4" t="n">
-        <v>7642.9128758085</v>
+        <v>8296.3998188527</v>
       </c>
       <c r="D4" t="n">
-        <v>6670.8216867242</v>
+        <v>7140.8738529542</v>
       </c>
       <c r="E4" t="n">
-        <v>24358.0511575601</v>
+        <v>28373.2637591481</v>
       </c>
       <c r="F4" t="n">
-        <v>25330.1423466444</v>
+        <v>29528.7897250466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1916.3398777299</v>
+        <v>2050.8</v>
       </c>
       <c r="C5" t="n">
-        <v>7617.1736297503</v>
+        <v>8081.1140384975</v>
       </c>
       <c r="D5" t="n">
-        <v>6604.4874850777</v>
+        <v>6962.7478903957</v>
       </c>
       <c r="E5" t="n">
-        <v>24242.4696529476</v>
+        <v>26839.4743757199</v>
       </c>
       <c r="F5" t="n">
-        <v>25255.1558</v>
+        <v>27957.8573804188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2071.0524627167</v>
+        <v>1987.6</v>
       </c>
       <c r="C6" t="n">
-        <v>8122</v>
+        <v>7745.0312450494</v>
       </c>
       <c r="D6" t="n">
-        <v>7064.7</v>
+        <v>6742.0430400944</v>
       </c>
       <c r="E6" t="n">
-        <v>26377</v>
+        <v>26263.911795045</v>
       </c>
       <c r="F6" t="n">
-        <v>27434.3</v>
+        <v>27266.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1816.3</v>
+        <v>2026.5</v>
       </c>
       <c r="C7" t="n">
-        <v>7267.0342438851</v>
+        <v>7797</v>
       </c>
       <c r="D7" t="n">
-        <v>6212.0702699999</v>
+        <v>6735.2</v>
       </c>
       <c r="E7" t="n">
-        <v>23125.2136050167</v>
+        <v>26900.8</v>
       </c>
       <c r="F7" t="n">
-        <v>24180.20107</v>
+        <v>27962.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.4052386691</v>
+        <v>2339.43175840725</v>
       </c>
       <c r="C8" t="n">
-        <v>8417.0478438227</v>
+        <v>8854.799999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>7308.2454553723</v>
+        <v>7662.3</v>
       </c>
       <c r="E8" t="n">
-        <v>29797.6220653495</v>
+        <v>31273.9</v>
       </c>
       <c r="F8" t="n">
-        <v>30906.4063979384</v>
+        <v>32466.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1729.1</v>
+        <v>2059.94062519025</v>
       </c>
       <c r="C9" t="n">
-        <v>7214.5</v>
+        <v>8309.6</v>
       </c>
       <c r="D9" t="n">
-        <v>6171.4</v>
+        <v>7294.7</v>
       </c>
       <c r="E9" t="n">
-        <v>22213.6</v>
+        <v>27746.3</v>
       </c>
       <c r="F9" t="n">
-        <v>23256.7</v>
+        <v>28761.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2180.5</v>
+        <v>1957.74758333571</v>
       </c>
       <c r="C10" t="n">
-        <v>8296.3998188527</v>
+        <v>8246.5</v>
       </c>
       <c r="D10" t="n">
-        <v>7140.8738529542</v>
+        <v>7107.2</v>
       </c>
       <c r="E10" t="n">
-        <v>28373.2637591481</v>
+        <v>26323.2</v>
       </c>
       <c r="F10" t="n">
-        <v>29528.7897250466</v>
+        <v>27462.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2050.8</v>
+        <v>2062.94463841108</v>
       </c>
       <c r="C11" t="n">
-        <v>8081.1140384975</v>
+        <v>8191.5</v>
       </c>
       <c r="D11" t="n">
-        <v>6962.7478903957</v>
+        <v>7143.8</v>
       </c>
       <c r="E11" t="n">
-        <v>26839.4743757199</v>
+        <v>27993.3</v>
       </c>
       <c r="F11" t="n">
-        <v>27957.8573804188</v>
+        <v>29041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1987.6</v>
+        <v>2239.7562185529</v>
       </c>
       <c r="C12" t="n">
-        <v>7745.0312450494</v>
+        <v>8553.5</v>
       </c>
       <c r="D12" t="n">
-        <v>6742.0430400944</v>
+        <v>7355.3</v>
       </c>
       <c r="E12" t="n">
-        <v>26263.911795045</v>
+        <v>30407</v>
       </c>
       <c r="F12" t="n">
-        <v>27266.9</v>
+        <v>31605.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2026.5</v>
+        <v>2098.48763771276</v>
       </c>
       <c r="C13" t="n">
-        <v>7797</v>
+        <v>8195.700000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>6735.2</v>
+        <v>6868</v>
       </c>
       <c r="E13" t="n">
-        <v>26900.8</v>
+        <v>28310.5</v>
       </c>
       <c r="F13" t="n">
-        <v>27962.6</v>
+        <v>29638.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2339.4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8854.799999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7662.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>31273.9</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>32466.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2059.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8309.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7294.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27746.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>28761.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1957.7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8246.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7107.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>26323.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>27462.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2062.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8191.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7143.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>27993.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29041</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2239.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8553.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7355.3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30407</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31605.2</v>
+        <v>26634</v>
       </c>
     </row>
   </sheetData>
